--- a/TAP_POM_Framework/data/TC0038.xlsx
+++ b/TAP_POM_Framework/data/TC0038.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
-  <workbookPr filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -18,40 +18,12 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>uname</t>
-  </si>
-  <si>
-    <t>pwd</t>
-  </si>
-  <si>
-    <t>app_admin@ltts.com</t>
-  </si>
-  <si>
-    <t>Rajravi@1</t>
-  </si>
-  <si>
-    <t>row</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -74,16 +46,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -362,41 +331,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-  </hyperlinks>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TAP_POM_Framework/data/TC0038.xlsx
+++ b/TAP_POM_Framework/data/TC0038.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -18,12 +18,37 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>uname</t>
+  </si>
+  <si>
+    <t>pwd</t>
+  </si>
+  <si>
+    <t>Rajravi@1</t>
+  </si>
+  <si>
+    <t>app_admin@ltts.com</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -46,13 +71,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -331,12 +359,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>